--- a/3_data_analysis/7_nmr_bucket_correlation_with_metrics/metabolite_metrics_correlation_dm.xlsx
+++ b/3_data_analysis/7_nmr_bucket_correlation_with_metrics/metabolite_metrics_correlation_dm.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">variable_id</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">4-hydroxyphenylacetate</t>
   </si>
   <si>
-    <t xml:space="preserve">b-glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α-glucose</t>
+    <t xml:space="preserve">beta-glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-glucose</t>
   </si>
   <si>
     <t xml:space="preserve">methanol</t>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">maxcimt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaque_present</t>
   </si>
   <si>
     <t xml:space="preserve">pwv</t>
@@ -1747,13 +1750,13 @@
         <v>28</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.0433604349202441</v>
+        <v>0.0679529588583501</v>
       </c>
       <c r="D78" t="n">
-        <v>0.82327345644934</v>
+        <v>0.72615370078925</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9411712592298</v>
+        <v>0.961797254209939</v>
       </c>
     </row>
     <row r="79">
@@ -1764,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.169253515853453</v>
+        <v>0.144400037573994</v>
       </c>
       <c r="D79" t="n">
-        <v>0.38009433710988</v>
+        <v>0.454856640606788</v>
       </c>
       <c r="E79" t="n">
-        <v>0.834965906975783</v>
+        <v>0.881122888251206</v>
       </c>
     </row>
     <row r="80">
@@ -1781,13 +1784,13 @@
         <v>28</v>
       </c>
       <c r="C80" t="n">
-        <v>0.204730235333652</v>
+        <v>0.509647191437625</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28671959674003</v>
+        <v>0.00474234639770003</v>
       </c>
       <c r="E80" t="n">
-        <v>0.834965906975783</v>
+        <v>0.0901045815563005</v>
       </c>
     </row>
     <row r="81">
@@ -1798,13 +1801,13 @@
         <v>28</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0955900497105381</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.621831006173545</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0.880970623278502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1815,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0386794788777177</v>
+        <v>0.0594588390010563</v>
       </c>
       <c r="D82" t="n">
-        <v>0.842100600363506</v>
+        <v>0.759313621744689</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9411712592298</v>
+        <v>0.961797254209939</v>
       </c>
     </row>
     <row r="83">
@@ -1832,13 +1835,13 @@
         <v>28</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0532150792202996</v>
+        <v>0.1359059177167</v>
       </c>
       <c r="D83" t="n">
-        <v>0.783961195208954</v>
+        <v>0.482084030995608</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9411712592298</v>
+        <v>0.881122888251206</v>
       </c>
     </row>
     <row r="84">
@@ -1849,13 +1852,13 @@
         <v>28</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.424735169332391</v>
+        <v>-0.237835356004225</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0216404609655459</v>
+        <v>0.214101894287793</v>
       </c>
       <c r="E84" t="n">
-        <v>0.411168758345373</v>
+        <v>0.813587198293613</v>
       </c>
     </row>
     <row r="85">
@@ -1866,13 +1869,13 @@
         <v>28</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.0133037698050749</v>
+        <v>0.0254823595718813</v>
       </c>
       <c r="D85" t="n">
-        <v>0.945392016369284</v>
+        <v>0.895607990084805</v>
       </c>
       <c r="E85" t="n">
-        <v>0.945392016369284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1883,13 +1886,13 @@
         <v>28</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.153239718865863</v>
+        <v>0.246329475861519</v>
       </c>
       <c r="D86" t="n">
-        <v>0.427413198409353</v>
+        <v>0.197700154149155</v>
       </c>
       <c r="E86" t="n">
-        <v>0.834965906975783</v>
+        <v>0.813587198293613</v>
       </c>
     </row>
     <row r="87">
@@ -1900,13 +1903,13 @@
         <v>28</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.0197092886001109</v>
+        <v>0.0849411985729376</v>
       </c>
       <c r="D87" t="n">
-        <v>0.919170479296201</v>
+        <v>0.661317537271852</v>
       </c>
       <c r="E87" t="n">
-        <v>0.945392016369284</v>
+        <v>0.961797254209939</v>
       </c>
     </row>
     <row r="88">
@@ -1917,13 +1920,13 @@
         <v>28</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.198571082646118</v>
+        <v>0.033976479429175</v>
       </c>
       <c r="D88" t="n">
-        <v>0.301777418030426</v>
+        <v>0.861102531836376</v>
       </c>
       <c r="E88" t="n">
-        <v>0.834965906975783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1934,13 +1937,13 @@
         <v>28</v>
       </c>
       <c r="C89" t="n">
-        <v>0.143138708458306</v>
+        <v>0.00849411985729376</v>
       </c>
       <c r="D89" t="n">
-        <v>0.458847302436299</v>
+        <v>0.965118957685411</v>
       </c>
       <c r="E89" t="n">
-        <v>0.834965906975783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1951,13 +1954,13 @@
         <v>28</v>
       </c>
       <c r="C90" t="n">
-        <v>0.109632917838117</v>
+        <v>0.0594588390010563</v>
       </c>
       <c r="D90" t="n">
-        <v>0.571303591221784</v>
+        <v>0.759313621744689</v>
       </c>
       <c r="E90" t="n">
-        <v>0.880970623278502</v>
+        <v>0.961797254209939</v>
       </c>
     </row>
     <row r="91">
@@ -1968,13 +1971,13 @@
         <v>28</v>
       </c>
       <c r="C91" t="n">
-        <v>0.146834200070827</v>
+        <v>0.1359059177167</v>
       </c>
       <c r="D91" t="n">
-        <v>0.447207718866978</v>
+        <v>0.482084030995608</v>
       </c>
       <c r="E91" t="n">
-        <v>0.834965906975783</v>
+        <v>0.881122888251206</v>
       </c>
     </row>
     <row r="92">
@@ -1985,13 +1988,13 @@
         <v>28</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0881990664854965</v>
+        <v>-0.280305955290694</v>
       </c>
       <c r="D92" t="n">
-        <v>0.649136248731528</v>
+        <v>0.140803132445295</v>
       </c>
       <c r="E92" t="n">
-        <v>0.880970623278502</v>
+        <v>0.813587198293613</v>
       </c>
     </row>
     <row r="93">
@@ -2002,13 +2005,13 @@
         <v>28</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.317319546461786</v>
+        <v>-0.254823595718813</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0934802294770599</v>
+        <v>0.182186705014425</v>
       </c>
       <c r="E93" t="n">
-        <v>0.834965906975783</v>
+        <v>0.813587198293613</v>
       </c>
     </row>
     <row r="94">
@@ -2019,13 +2022,13 @@
         <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.173441739680976</v>
+        <v>-0.127411797859406</v>
       </c>
       <c r="D94" t="n">
-        <v>0.368240573405064</v>
+        <v>0.510123777408593</v>
       </c>
       <c r="E94" t="n">
-        <v>0.834965906975783</v>
+        <v>0.881122888251206</v>
       </c>
     </row>
     <row r="95">
@@ -2036,13 +2039,13 @@
         <v>28</v>
       </c>
       <c r="C95" t="n">
-        <v>0.181571821228522</v>
+        <v>0.178376517003169</v>
       </c>
       <c r="D95" t="n">
-        <v>0.345859261826535</v>
+        <v>0.354556135185916</v>
       </c>
       <c r="E95" t="n">
-        <v>0.834965906975783</v>
+        <v>0.881122888251206</v>
       </c>
     </row>
     <row r="96">
@@ -2053,12 +2056,335 @@
         <v>28</v>
       </c>
       <c r="C96" t="n">
+        <v>0.212352996432344</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.268758355131806</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.851068124584053</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.0433604349202441</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.82327345644934</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.9411712592298</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.169253515853453</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.38009433710988</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.204730235333652</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.28671959674003</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.0955900497105381</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.621831006173545</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.880970623278502</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0386794788777177</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.842100600363506</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9411712592298</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0532150792202996</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.783961195208954</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9411712592298</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.424735169332391</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.0216404609655459</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.411168758345373</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.0133037698050749</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.945392016369284</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.945392016369284</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.153239718865863</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.427413198409353</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.0197092886001109</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.919170479296201</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.945392016369284</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.198571082646118</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.301777418030426</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.143138708458306</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.458847302436299</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.109632917838117</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.571303591221784</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.880970623278502</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.146834200070827</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.447207718866978</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.0881990664854965</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.649136248731528</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.880970623278502</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.317319546461786</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0934802294770599</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.173441739680976</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.368240573405064</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.181571821228522</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.345859261826535</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.834965906975783</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="n">
         <v>0.135501359125763</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D115" t="n">
         <v>0.483401314564927</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E115" t="n">
         <v>0.834965906975783</v>
       </c>
     </row>
